--- a/Input/FidelityUnited/rateSheet1.xlsx
+++ b/Input/FidelityUnited/rateSheet1.xlsx
@@ -11,7 +11,7 @@
     <sheet name="rates" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">rates!$A$1:$H$541</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">rates!$A$1:$H$541</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -1482,6 +1482,7 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1549,41 +1550,36 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="true">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:J541"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B453" activeCellId="0" sqref="B453"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.50390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="54.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="21.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="8.5"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="8.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="25.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="8.5"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="8.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="17.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1611,14 +1607,14 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1650,7 +1646,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1682,7 +1678,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1714,7 +1710,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1746,7 +1742,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1778,7 +1774,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1810,7 +1806,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1842,7 +1838,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1874,7 +1870,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -1906,7 +1902,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1938,7 +1934,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1970,7 +1966,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -2002,7 +1998,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -2034,7 +2030,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -2066,7 +2062,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
@@ -2098,7 +2094,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
@@ -2130,7 +2126,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
@@ -2162,7 +2158,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>10</v>
       </c>
@@ -2194,7 +2190,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>10</v>
       </c>
@@ -2226,7 +2222,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>10</v>
       </c>
@@ -2258,7 +2254,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
@@ -2290,7 +2286,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>10</v>
       </c>
@@ -2322,7 +2318,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>10</v>
       </c>
@@ -2354,7 +2350,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>10</v>
       </c>
@@ -2386,7 +2382,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>10</v>
       </c>
@@ -2418,7 +2414,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>10</v>
       </c>
@@ -2450,7 +2446,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>10</v>
       </c>
@@ -2482,7 +2478,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>10</v>
       </c>
@@ -2514,7 +2510,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>10</v>
       </c>
@@ -2546,7 +2542,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>10</v>
       </c>
@@ -2578,7 +2574,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>10</v>
       </c>
@@ -2610,7 +2606,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>10</v>
       </c>
@@ -2642,7 +2638,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>10</v>
       </c>
@@ -2674,7 +2670,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>10</v>
       </c>
@@ -2706,7 +2702,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>10</v>
       </c>
@@ -2738,7 +2734,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>10</v>
       </c>
@@ -2770,7 +2766,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>10</v>
       </c>
@@ -2802,7 +2798,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>10</v>
       </c>
@@ -2834,7 +2830,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>10</v>
       </c>
@@ -2866,7 +2862,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>10</v>
       </c>
@@ -2898,7 +2894,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>10</v>
       </c>
@@ -2930,7 +2926,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>10</v>
       </c>
@@ -2962,7 +2958,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>10</v>
       </c>
@@ -2994,7 +2990,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>10</v>
       </c>
@@ -3026,7 +3022,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>10</v>
       </c>
@@ -3058,7 +3054,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>10</v>
       </c>
@@ -3090,7 +3086,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>10</v>
       </c>
@@ -3122,7 +3118,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>10</v>
       </c>
@@ -3154,7 +3150,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>10</v>
       </c>
@@ -3186,7 +3182,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>10</v>
       </c>
@@ -3218,7 +3214,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
         <v>10</v>
       </c>
@@ -3250,7 +3246,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
         <v>10</v>
       </c>
@@ -3282,7 +3278,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
         <v>10</v>
       </c>
@@ -3314,7 +3310,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
         <v>10</v>
       </c>
@@ -3346,7 +3342,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
         <v>10</v>
       </c>
@@ -3378,7 +3374,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
         <v>10</v>
       </c>
@@ -3410,7 +3406,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
         <v>10</v>
       </c>
@@ -3442,7 +3438,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
         <v>10</v>
       </c>
@@ -3474,7 +3470,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
         <v>10</v>
       </c>
@@ -3506,7 +3502,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
         <v>10</v>
       </c>
@@ -3538,7 +3534,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
         <v>10</v>
       </c>
@@ -3570,7 +3566,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
         <v>10</v>
       </c>
@@ -3602,7 +3598,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
         <v>10</v>
       </c>
@@ -3634,7 +3630,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
         <v>10</v>
       </c>
@@ -3666,7 +3662,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
         <v>10</v>
       </c>
@@ -3698,7 +3694,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
         <v>10</v>
       </c>
@@ -3730,7 +3726,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
         <v>10</v>
       </c>
@@ -3762,7 +3758,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
         <v>10</v>
       </c>
@@ -3794,7 +3790,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
         <v>10</v>
       </c>
@@ -3826,7 +3822,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
         <v>10</v>
       </c>
@@ -3858,7 +3854,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
         <v>10</v>
       </c>
@@ -3890,7 +3886,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
         <v>10</v>
       </c>
@@ -3922,7 +3918,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
         <v>10</v>
       </c>
@@ -3954,7 +3950,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
         <v>10</v>
       </c>
@@ -3986,7 +3982,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
         <v>10</v>
       </c>
@@ -4018,7 +4014,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
         <v>10</v>
       </c>
@@ -4050,7 +4046,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
         <v>10</v>
       </c>
@@ -4082,7 +4078,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
         <v>10</v>
       </c>
@@ -4114,7 +4110,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
         <v>10</v>
       </c>
@@ -4146,7 +4142,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
         <v>10</v>
       </c>
@@ -4178,7 +4174,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
         <v>10</v>
       </c>
@@ -4210,7 +4206,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
         <v>10</v>
       </c>
@@ -4242,7 +4238,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
         <v>10</v>
       </c>
@@ -4274,7 +4270,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
         <v>10</v>
       </c>
@@ -4306,7 +4302,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
         <v>10</v>
       </c>
@@ -4338,7 +4334,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
         <v>10</v>
       </c>
@@ -4370,7 +4366,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
         <v>10</v>
       </c>
@@ -4402,7 +4398,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
         <v>10</v>
       </c>
@@ -4434,7 +4430,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
         <v>10</v>
       </c>
@@ -4466,7 +4462,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
         <v>10</v>
       </c>
@@ -4498,7 +4494,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
         <v>95</v>
       </c>
@@ -4530,7 +4526,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
         <v>95</v>
       </c>
@@ -4562,7 +4558,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
         <v>95</v>
       </c>
@@ -4594,7 +4590,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
         <v>95</v>
       </c>
@@ -4626,7 +4622,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
         <v>95</v>
       </c>
@@ -4658,7 +4654,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
         <v>95</v>
       </c>
@@ -4690,7 +4686,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
         <v>95</v>
       </c>
@@ -4722,7 +4718,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
         <v>95</v>
       </c>
@@ -4754,7 +4750,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
         <v>95</v>
       </c>
@@ -4786,7 +4782,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
         <v>95</v>
       </c>
@@ -4818,7 +4814,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
         <v>95</v>
       </c>
@@ -4850,7 +4846,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
         <v>95</v>
       </c>
@@ -4882,7 +4878,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
         <v>95</v>
       </c>
@@ -4914,7 +4910,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
         <v>95</v>
       </c>
@@ -4946,7 +4942,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
         <v>95</v>
       </c>
@@ -4978,7 +4974,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
         <v>95</v>
       </c>
@@ -5010,7 +5006,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
         <v>95</v>
       </c>
@@ -5042,7 +5038,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
         <v>95</v>
       </c>
@@ -5074,7 +5070,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
         <v>95</v>
       </c>
@@ -5106,7 +5102,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
         <v>95</v>
       </c>
@@ -5138,7 +5134,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
         <v>95</v>
       </c>
@@ -5170,7 +5166,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
         <v>95</v>
       </c>
@@ -5202,7 +5198,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
         <v>95</v>
       </c>
@@ -5234,7 +5230,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
         <v>95</v>
       </c>
@@ -5266,7 +5262,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
         <v>95</v>
       </c>
@@ -5298,7 +5294,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
         <v>95</v>
       </c>
@@ -5330,7 +5326,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
         <v>95</v>
       </c>
@@ -5362,7 +5358,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
         <v>95</v>
       </c>
@@ -5394,7 +5390,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
         <v>95</v>
       </c>
@@ -5426,7 +5422,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
         <v>95</v>
       </c>
@@ -5458,7 +5454,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
         <v>95</v>
       </c>
@@ -5490,7 +5486,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
         <v>95</v>
       </c>
@@ -5522,7 +5518,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
         <v>95</v>
       </c>
@@ -5554,7 +5550,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
         <v>95</v>
       </c>
@@ -5586,7 +5582,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
         <v>95</v>
       </c>
@@ -5618,7 +5614,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
         <v>95</v>
       </c>
@@ -5650,7 +5646,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
         <v>95</v>
       </c>
@@ -5682,7 +5678,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
         <v>95</v>
       </c>
@@ -5714,7 +5710,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
         <v>95</v>
       </c>
@@ -5746,7 +5742,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
         <v>95</v>
       </c>
@@ -5778,7 +5774,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
         <v>95</v>
       </c>
@@ -5810,7 +5806,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
         <v>95</v>
       </c>
@@ -5842,7 +5838,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
         <v>95</v>
       </c>
@@ -5874,7 +5870,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
         <v>95</v>
       </c>
@@ -5906,7 +5902,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
         <v>95</v>
       </c>
@@ -5938,7 +5934,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
         <v>95</v>
       </c>
@@ -5970,7 +5966,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
         <v>95</v>
       </c>
@@ -6002,7 +5998,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
         <v>95</v>
       </c>
@@ -6034,7 +6030,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
         <v>95</v>
       </c>
@@ -6066,7 +6062,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
         <v>95</v>
       </c>
@@ -6098,7 +6094,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
         <v>95</v>
       </c>
@@ -6130,7 +6126,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
         <v>95</v>
       </c>
@@ -6162,7 +6158,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
         <v>95</v>
       </c>
@@ -6194,7 +6190,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
         <v>95</v>
       </c>
@@ -6226,7 +6222,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
         <v>95</v>
       </c>
@@ -6258,7 +6254,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
         <v>95</v>
       </c>
@@ -6290,7 +6286,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
         <v>95</v>
       </c>
@@ -6322,7 +6318,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
         <v>95</v>
       </c>
@@ -6354,7 +6350,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
         <v>95</v>
       </c>
@@ -6386,7 +6382,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
         <v>95</v>
       </c>
@@ -6418,7 +6414,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
         <v>95</v>
       </c>
@@ -6450,7 +6446,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
         <v>95</v>
       </c>
@@ -6482,7 +6478,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
         <v>95</v>
       </c>
@@ -6514,7 +6510,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
         <v>95</v>
       </c>
@@ -6546,7 +6542,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
         <v>95</v>
       </c>
@@ -6578,7 +6574,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
         <v>95</v>
       </c>
@@ -6610,7 +6606,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
         <v>95</v>
       </c>
@@ -6642,7 +6638,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
         <v>95</v>
       </c>
@@ -6674,7 +6670,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
         <v>95</v>
       </c>
@@ -6706,7 +6702,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
         <v>95</v>
       </c>
@@ -6738,7 +6734,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
         <v>95</v>
       </c>
@@ -6770,7 +6766,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
         <v>95</v>
       </c>
@@ -6802,7 +6798,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
         <v>95</v>
       </c>
@@ -6834,7 +6830,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
         <v>95</v>
       </c>
@@ -6866,7 +6862,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
         <v>95</v>
       </c>
@@ -6898,7 +6894,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
         <v>95</v>
       </c>
@@ -6930,7 +6926,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
         <v>95</v>
       </c>
@@ -6962,7 +6958,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
         <v>95</v>
       </c>
@@ -6994,7 +6990,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
         <v>95</v>
       </c>
@@ -7026,7 +7022,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
         <v>95</v>
       </c>
@@ -7058,7 +7054,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
         <v>95</v>
       </c>
@@ -7090,7 +7086,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
         <v>95</v>
       </c>
@@ -7122,7 +7118,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
         <v>95</v>
       </c>
@@ -7154,7 +7150,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
         <v>95</v>
       </c>
@@ -7186,7 +7182,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
         <v>95</v>
       </c>
@@ -7218,7 +7214,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
         <v>95</v>
       </c>
@@ -7250,7 +7246,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
         <v>95</v>
       </c>
@@ -7282,7 +7278,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
         <v>95</v>
       </c>
@@ -7314,7 +7310,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
         <v>95</v>
       </c>
@@ -7346,7 +7342,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
         <v>95</v>
       </c>
@@ -7378,7 +7374,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
         <v>95</v>
       </c>
@@ -7410,7 +7406,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
         <v>173</v>
       </c>
@@ -7442,7 +7438,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
         <v>173</v>
       </c>
@@ -7474,7 +7470,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
         <v>173</v>
       </c>
@@ -7506,7 +7502,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
         <v>173</v>
       </c>
@@ -7538,7 +7534,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
         <v>173</v>
       </c>
@@ -7570,7 +7566,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
         <v>173</v>
       </c>
@@ -7602,7 +7598,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
         <v>173</v>
       </c>
@@ -7634,7 +7630,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
         <v>173</v>
       </c>
@@ -7666,7 +7662,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
         <v>173</v>
       </c>
@@ -7698,7 +7694,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
         <v>173</v>
       </c>
@@ -7730,7 +7726,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
         <v>173</v>
       </c>
@@ -7762,7 +7758,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
         <v>173</v>
       </c>
@@ -7794,7 +7790,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
         <v>173</v>
       </c>
@@ -7826,7 +7822,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
         <v>173</v>
       </c>
@@ -7858,7 +7854,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
         <v>173</v>
       </c>
@@ -7890,7 +7886,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
         <v>173</v>
       </c>
@@ -7922,7 +7918,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
         <v>173</v>
       </c>
@@ -7954,7 +7950,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
         <v>173</v>
       </c>
@@ -7986,7 +7982,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
         <v>173</v>
       </c>
@@ -8018,7 +8014,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
         <v>173</v>
       </c>
@@ -8050,7 +8046,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
         <v>173</v>
       </c>
@@ -8082,7 +8078,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
         <v>173</v>
       </c>
@@ -8114,7 +8110,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
         <v>173</v>
       </c>
@@ -8146,7 +8142,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
         <v>173</v>
       </c>
@@ -8178,7 +8174,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="s">
         <v>173</v>
       </c>
@@ -8210,7 +8206,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
         <v>173</v>
       </c>
@@ -8242,7 +8238,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
         <v>173</v>
       </c>
@@ -8274,7 +8270,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="s">
         <v>173</v>
       </c>
@@ -8306,7 +8302,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="s">
         <v>173</v>
       </c>
@@ -8338,7 +8334,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="s">
         <v>173</v>
       </c>
@@ -8370,7 +8366,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
         <v>173</v>
       </c>
@@ -8402,7 +8398,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">
         <v>173</v>
       </c>
@@ -8434,7 +8430,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
         <v>173</v>
       </c>
@@ -8466,7 +8462,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
         <v>173</v>
       </c>
@@ -8498,7 +8494,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="s">
         <v>173</v>
       </c>
@@ -8530,7 +8526,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="s">
         <v>173</v>
       </c>
@@ -8562,7 +8558,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="s">
         <v>173</v>
       </c>
@@ -8594,7 +8590,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="s">
         <v>173</v>
       </c>
@@ -8626,7 +8622,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="s">
         <v>173</v>
       </c>
@@ -8658,7 +8654,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="s">
         <v>173</v>
       </c>
@@ -8690,7 +8686,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="s">
         <v>173</v>
       </c>
@@ -8722,7 +8718,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="s">
         <v>173</v>
       </c>
@@ -8754,7 +8750,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="s">
         <v>173</v>
       </c>
@@ -8786,7 +8782,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="s">
         <v>173</v>
       </c>
@@ -8818,7 +8814,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="s">
         <v>173</v>
       </c>
@@ -8850,7 +8846,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="s">
         <v>173</v>
       </c>
@@ -8882,7 +8878,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="s">
         <v>173</v>
       </c>
@@ -8914,7 +8910,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="s">
         <v>173</v>
       </c>
@@ -8946,7 +8942,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="s">
         <v>173</v>
       </c>
@@ -8978,7 +8974,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="s">
         <v>173</v>
       </c>
@@ -9010,7 +9006,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="s">
         <v>173</v>
       </c>
@@ -9042,7 +9038,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="s">
         <v>173</v>
       </c>
@@ -9074,7 +9070,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="s">
         <v>173</v>
       </c>
@@ -9106,7 +9102,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="1" t="s">
         <v>173</v>
       </c>
@@ -9138,7 +9134,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="237" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="s">
         <v>173</v>
       </c>
@@ -9170,7 +9166,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="s">
         <v>173</v>
       </c>
@@ -9202,7 +9198,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="s">
         <v>173</v>
       </c>
@@ -9234,7 +9230,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="s">
         <v>173</v>
       </c>
@@ -9266,7 +9262,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="s">
         <v>173</v>
       </c>
@@ -9298,7 +9294,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="s">
         <v>173</v>
       </c>
@@ -9330,7 +9326,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="243" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="1" t="s">
         <v>173</v>
       </c>
@@ -9362,7 +9358,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="s">
         <v>173</v>
       </c>
@@ -9394,7 +9390,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="s">
         <v>173</v>
       </c>
@@ -9426,7 +9422,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="s">
         <v>173</v>
       </c>
@@ -9458,7 +9454,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="247" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="s">
         <v>173</v>
       </c>
@@ -9490,7 +9486,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="248" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="s">
         <v>173</v>
       </c>
@@ -9522,7 +9518,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="s">
         <v>173</v>
       </c>
@@ -9554,7 +9550,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="s">
         <v>173</v>
       </c>
@@ -9586,7 +9582,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="s">
         <v>173</v>
       </c>
@@ -9618,7 +9614,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="s">
         <v>173</v>
       </c>
@@ -9650,7 +9646,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="1" t="s">
         <v>173</v>
       </c>
@@ -9682,7 +9678,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="s">
         <v>173</v>
       </c>
@@ -9714,7 +9710,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="255" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="s">
         <v>173</v>
       </c>
@@ -9746,7 +9742,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="256" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="1" t="s">
         <v>173</v>
       </c>
@@ -9778,7 +9774,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="257" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="s">
         <v>173</v>
       </c>
@@ -9810,7 +9806,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="258" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="1" t="s">
         <v>173</v>
       </c>
@@ -9842,7 +9838,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="259" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="1" t="s">
         <v>173</v>
       </c>
@@ -9874,7 +9870,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="260" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="1" t="s">
         <v>173</v>
       </c>
@@ -9906,7 +9902,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="261" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="1" t="s">
         <v>173</v>
       </c>
@@ -9938,7 +9934,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="1" t="s">
         <v>173</v>
       </c>
@@ -9970,7 +9966,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="263" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="1" t="s">
         <v>173</v>
       </c>
@@ -10002,7 +9998,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="264" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="1" t="s">
         <v>173</v>
       </c>
@@ -10034,7 +10030,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="265" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="1" t="s">
         <v>173</v>
       </c>
@@ -10066,7 +10062,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="266" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="1" t="s">
         <v>173</v>
       </c>
@@ -10098,7 +10094,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="267" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="1" t="s">
         <v>173</v>
       </c>
@@ -10130,7 +10126,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="268" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="1" t="s">
         <v>173</v>
       </c>
@@ -10162,7 +10158,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="269" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="1" t="s">
         <v>173</v>
       </c>
@@ -10194,7 +10190,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="270" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="1" t="s">
         <v>173</v>
       </c>
@@ -10226,7 +10222,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="271" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="1" t="s">
         <v>173</v>
       </c>
@@ -10258,7 +10254,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="272" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="1" t="s">
         <v>249</v>
       </c>
@@ -10290,7 +10286,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="1" t="s">
         <v>249</v>
       </c>
@@ -10322,7 +10318,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="274" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="1" t="s">
         <v>249</v>
       </c>
@@ -10354,7 +10350,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="275" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="1" t="s">
         <v>249</v>
       </c>
@@ -10386,7 +10382,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="276" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="1" t="s">
         <v>249</v>
       </c>
@@ -10418,7 +10414,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="277" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="1" t="s">
         <v>249</v>
       </c>
@@ -10450,7 +10446,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="278" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="1" t="s">
         <v>249</v>
       </c>
@@ -10482,7 +10478,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="279" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="1" t="s">
         <v>249</v>
       </c>
@@ -10514,7 +10510,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="280" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="1" t="s">
         <v>249</v>
       </c>
@@ -10546,7 +10542,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="281" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="1" t="s">
         <v>249</v>
       </c>
@@ -10578,7 +10574,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="282" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="1" t="s">
         <v>249</v>
       </c>
@@ -10610,7 +10606,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="283" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="1" t="s">
         <v>249</v>
       </c>
@@ -10642,7 +10638,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="284" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="1" t="s">
         <v>249</v>
       </c>
@@ -10674,7 +10670,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="285" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="1" t="s">
         <v>249</v>
       </c>
@@ -10706,7 +10702,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="286" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="1" t="s">
         <v>249</v>
       </c>
@@ -10738,7 +10734,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="287" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="1" t="s">
         <v>249</v>
       </c>
@@ -10770,7 +10766,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="288" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="1" t="s">
         <v>249</v>
       </c>
@@ -10802,7 +10798,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="289" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="1" t="s">
         <v>249</v>
       </c>
@@ -10834,7 +10830,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="290" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="1" t="s">
         <v>249</v>
       </c>
@@ -10866,7 +10862,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="291" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="1" t="s">
         <v>249</v>
       </c>
@@ -10898,7 +10894,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="292" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="1" t="s">
         <v>249</v>
       </c>
@@ -10930,7 +10926,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="293" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="1" t="s">
         <v>249</v>
       </c>
@@ -10962,7 +10958,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="294" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="1" t="s">
         <v>249</v>
       </c>
@@ -10994,7 +10990,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="295" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="1" t="s">
         <v>249</v>
       </c>
@@ -11026,7 +11022,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="296" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="1" t="s">
         <v>249</v>
       </c>
@@ -11058,7 +11054,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="297" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="1" t="s">
         <v>249</v>
       </c>
@@ -11090,7 +11086,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="298" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="1" t="s">
         <v>249</v>
       </c>
@@ -11122,7 +11118,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="299" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="1" t="s">
         <v>249</v>
       </c>
@@ -11154,7 +11150,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="300" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="1" t="s">
         <v>249</v>
       </c>
@@ -11186,7 +11182,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="301" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="1" t="s">
         <v>249</v>
       </c>
@@ -11218,7 +11214,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="302" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="1" t="s">
         <v>249</v>
       </c>
@@ -11250,7 +11246,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="303" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="1" t="s">
         <v>249</v>
       </c>
@@ -11282,7 +11278,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="304" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="1" t="s">
         <v>249</v>
       </c>
@@ -11314,7 +11310,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="305" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="1" t="s">
         <v>249</v>
       </c>
@@ -11346,7 +11342,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="306" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="1" t="s">
         <v>249</v>
       </c>
@@ -11378,7 +11374,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="307" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="307" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="1" t="s">
         <v>249</v>
       </c>
@@ -11410,7 +11406,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="308" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="1" t="s">
         <v>249</v>
       </c>
@@ -11442,7 +11438,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="309" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="1" t="s">
         <v>249</v>
       </c>
@@ -11474,7 +11470,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="310" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="1" t="s">
         <v>249</v>
       </c>
@@ -11506,7 +11502,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="311" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="311" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="1" t="s">
         <v>249</v>
       </c>
@@ -11538,7 +11534,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="312" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="312" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="1" t="s">
         <v>249</v>
       </c>
@@ -11570,7 +11566,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="313" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="313" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="1" t="s">
         <v>249</v>
       </c>
@@ -11602,7 +11598,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="314" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="314" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="1" t="s">
         <v>249</v>
       </c>
@@ -11634,7 +11630,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="315" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="315" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="1" t="s">
         <v>249</v>
       </c>
@@ -11666,7 +11662,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="316" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="316" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="1" t="s">
         <v>249</v>
       </c>
@@ -11698,7 +11694,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="317" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="317" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="1" t="s">
         <v>249</v>
       </c>
@@ -11730,7 +11726,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="318" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="318" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="1" t="s">
         <v>249</v>
       </c>
@@ -11762,7 +11758,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="319" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="319" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="1" t="s">
         <v>249</v>
       </c>
@@ -11794,7 +11790,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="320" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="320" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="1" t="s">
         <v>249</v>
       </c>
@@ -11826,7 +11822,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="321" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="321" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="1" t="s">
         <v>249</v>
       </c>
@@ -11858,7 +11854,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="322" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="322" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="1" t="s">
         <v>249</v>
       </c>
@@ -11890,7 +11886,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="323" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="323" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="1" t="s">
         <v>249</v>
       </c>
@@ -11922,7 +11918,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="324" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="324" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="1" t="s">
         <v>249</v>
       </c>
@@ -11954,7 +11950,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="325" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="325" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="1" t="s">
         <v>249</v>
       </c>
@@ -11986,7 +11982,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="326" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="326" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="1" t="s">
         <v>249</v>
       </c>
@@ -12018,7 +12014,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="327" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="1" t="s">
         <v>249</v>
       </c>
@@ -12050,7 +12046,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="328" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="328" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="1" t="s">
         <v>249</v>
       </c>
@@ -12082,7 +12078,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="329" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="329" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="1" t="s">
         <v>249</v>
       </c>
@@ -12114,7 +12110,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="330" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="330" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="1" t="s">
         <v>249</v>
       </c>
@@ -12146,7 +12142,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="331" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="331" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="1" t="s">
         <v>249</v>
       </c>
@@ -12178,7 +12174,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="332" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="332" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="1" t="s">
         <v>249</v>
       </c>
@@ -12210,7 +12206,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="333" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="333" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="1" t="s">
         <v>249</v>
       </c>
@@ -12242,7 +12238,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="334" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="334" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="1" t="s">
         <v>249</v>
       </c>
@@ -12274,7 +12270,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="335" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="335" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="1" t="s">
         <v>249</v>
       </c>
@@ -12306,7 +12302,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="336" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="336" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="1" t="s">
         <v>249</v>
       </c>
@@ -12338,7 +12334,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="337" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="337" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="1" t="s">
         <v>249</v>
       </c>
@@ -12370,7 +12366,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="338" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="338" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="1" t="s">
         <v>249</v>
       </c>
@@ -12402,7 +12398,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="339" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="339" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="1" t="s">
         <v>249</v>
       </c>
@@ -12434,7 +12430,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="340" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="340" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="1" t="s">
         <v>249</v>
       </c>
@@ -12466,7 +12462,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="341" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="341" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="1" t="s">
         <v>249</v>
       </c>
@@ -12498,7 +12494,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="342" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="342" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="1" t="s">
         <v>249</v>
       </c>
@@ -12530,7 +12526,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="343" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="343" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="1" t="s">
         <v>249</v>
       </c>
@@ -12562,7 +12558,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="344" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="344" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="1" t="s">
         <v>249</v>
       </c>
@@ -12594,7 +12590,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="345" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="345" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="1" t="s">
         <v>249</v>
       </c>
@@ -12626,7 +12622,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="346" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="346" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="1" t="s">
         <v>249</v>
       </c>
@@ -12658,7 +12654,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="347" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="347" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="1" t="s">
         <v>249</v>
       </c>
@@ -12690,7 +12686,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="348" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="348" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="1" t="s">
         <v>249</v>
       </c>
@@ -12722,7 +12718,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="349" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="349" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="1" t="s">
         <v>249</v>
       </c>
@@ -12754,7 +12750,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="350" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="350" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="1" t="s">
         <v>249</v>
       </c>
@@ -12786,7 +12782,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="351" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="351" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="1" t="s">
         <v>249</v>
       </c>
@@ -12818,7 +12814,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="352" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="352" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="1" t="s">
         <v>249</v>
       </c>
@@ -12850,7 +12846,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="353" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="353" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="1" t="s">
         <v>249</v>
       </c>
@@ -12882,7 +12878,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="354" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="354" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="1" t="s">
         <v>249</v>
       </c>
@@ -12914,7 +12910,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="355" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="355" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="1" t="s">
         <v>249</v>
       </c>
@@ -12946,7 +12942,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="356" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="356" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="1" t="s">
         <v>249</v>
       </c>
@@ -12978,7 +12974,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="357" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="357" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="1" t="s">
         <v>249</v>
       </c>
@@ -13010,7 +13006,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="358" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="358" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="1" t="s">
         <v>249</v>
       </c>
@@ -13042,7 +13038,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="359" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="359" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="1" t="s">
         <v>249</v>
       </c>
@@ -13074,7 +13070,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="360" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="360" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="1" t="s">
         <v>249</v>
       </c>
@@ -13106,7 +13102,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="361" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="361" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="1" t="s">
         <v>249</v>
       </c>
@@ -13138,7 +13134,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="362" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="362" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="1" t="s">
         <v>325</v>
       </c>
@@ -13170,7 +13166,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="363" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="363" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="1" t="s">
         <v>325</v>
       </c>
@@ -13202,7 +13198,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="364" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="364" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="1" t="s">
         <v>325</v>
       </c>
@@ -13234,7 +13230,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="365" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="365" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="1" t="s">
         <v>325</v>
       </c>
@@ -13266,7 +13262,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="366" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="366" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="1" t="s">
         <v>325</v>
       </c>
@@ -13298,7 +13294,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="367" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="367" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="1" t="s">
         <v>325</v>
       </c>
@@ -13330,7 +13326,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="368" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="368" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="1" t="s">
         <v>325</v>
       </c>
@@ -13362,7 +13358,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="369" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="369" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="1" t="s">
         <v>325</v>
       </c>
@@ -13394,7 +13390,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="370" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="370" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="1" t="s">
         <v>325</v>
       </c>
@@ -13426,7 +13422,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="371" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="371" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="1" t="s">
         <v>325</v>
       </c>
@@ -13458,7 +13454,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="372" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="372" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="1" t="s">
         <v>325</v>
       </c>
@@ -13490,7 +13486,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="373" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="373" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="1" t="s">
         <v>325</v>
       </c>
@@ -13522,7 +13518,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="374" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="374" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="1" t="s">
         <v>325</v>
       </c>
@@ -13554,7 +13550,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="375" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="375" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="1" t="s">
         <v>325</v>
       </c>
@@ -13586,7 +13582,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="376" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="376" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="1" t="s">
         <v>325</v>
       </c>
@@ -13618,7 +13614,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="377" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="377" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="1" t="s">
         <v>325</v>
       </c>
@@ -13650,7 +13646,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="378" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="378" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="1" t="s">
         <v>325</v>
       </c>
@@ -13682,7 +13678,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="379" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="379" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="1" t="s">
         <v>325</v>
       </c>
@@ -13714,7 +13710,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="380" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="380" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="1" t="s">
         <v>325</v>
       </c>
@@ -13746,7 +13742,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="381" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="381" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="1" t="s">
         <v>325</v>
       </c>
@@ -13778,7 +13774,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="382" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="382" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="1" t="s">
         <v>325</v>
       </c>
@@ -13810,7 +13806,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="383" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="383" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="1" t="s">
         <v>325</v>
       </c>
@@ -13842,7 +13838,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="384" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="384" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="1" t="s">
         <v>325</v>
       </c>
@@ -13874,7 +13870,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="385" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="385" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="1" t="s">
         <v>325</v>
       </c>
@@ -13906,7 +13902,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="386" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="386" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="1" t="s">
         <v>325</v>
       </c>
@@ -13938,7 +13934,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="387" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="387" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="1" t="s">
         <v>325</v>
       </c>
@@ -13970,7 +13966,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="388" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="388" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="1" t="s">
         <v>325</v>
       </c>
@@ -14002,7 +13998,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="389" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="389" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="1" t="s">
         <v>325</v>
       </c>
@@ -14034,7 +14030,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="390" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="390" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="1" t="s">
         <v>325</v>
       </c>
@@ -14066,7 +14062,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="391" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="391" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="1" t="s">
         <v>325</v>
       </c>
@@ -14098,7 +14094,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="392" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="392" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="1" t="s">
         <v>325</v>
       </c>
@@ -14130,7 +14126,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="393" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="393" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="1" t="s">
         <v>325</v>
       </c>
@@ -14162,7 +14158,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="394" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="394" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="1" t="s">
         <v>325</v>
       </c>
@@ -14194,7 +14190,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="395" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="395" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="1" t="s">
         <v>325</v>
       </c>
@@ -14226,7 +14222,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="396" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="396" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="1" t="s">
         <v>325</v>
       </c>
@@ -14258,7 +14254,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="397" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="397" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="1" t="s">
         <v>325</v>
       </c>
@@ -14290,7 +14286,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="398" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="398" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="1" t="s">
         <v>325</v>
       </c>
@@ -14322,7 +14318,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="399" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="399" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="1" t="s">
         <v>325</v>
       </c>
@@ -14354,7 +14350,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="400" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="400" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="1" t="s">
         <v>325</v>
       </c>
@@ -14386,7 +14382,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="401" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="401" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="1" t="s">
         <v>325</v>
       </c>
@@ -14418,7 +14414,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="402" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="402" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="1" t="s">
         <v>325</v>
       </c>
@@ -14450,7 +14446,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="403" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="403" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="1" t="s">
         <v>325</v>
       </c>
@@ -14482,7 +14478,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="404" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="404" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="1" t="s">
         <v>325</v>
       </c>
@@ -14514,7 +14510,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="405" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="405" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="1" t="s">
         <v>325</v>
       </c>
@@ -14546,7 +14542,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="406" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="406" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="1" t="s">
         <v>325</v>
       </c>
@@ -14578,7 +14574,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="407" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="407" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="1" t="s">
         <v>325</v>
       </c>
@@ -14610,7 +14606,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="408" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="408" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="1" t="s">
         <v>325</v>
       </c>
@@ -14642,7 +14638,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="409" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="409" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="1" t="s">
         <v>325</v>
       </c>
@@ -14674,7 +14670,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="410" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="410" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="1" t="s">
         <v>325</v>
       </c>
@@ -14706,7 +14702,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="411" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="411" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="1" t="s">
         <v>325</v>
       </c>
@@ -14738,7 +14734,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="412" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="412" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="1" t="s">
         <v>325</v>
       </c>
@@ -14770,7 +14766,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="413" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="413" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="1" t="s">
         <v>325</v>
       </c>
@@ -14802,7 +14798,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="414" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="414" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="1" t="s">
         <v>325</v>
       </c>
@@ -14834,7 +14830,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="415" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="415" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="1" t="s">
         <v>325</v>
       </c>
@@ -14866,7 +14862,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="416" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="416" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="1" t="s">
         <v>325</v>
       </c>
@@ -14898,7 +14894,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="417" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="417" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="1" t="s">
         <v>325</v>
       </c>
@@ -14930,7 +14926,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="418" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="418" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="1" t="s">
         <v>325</v>
       </c>
@@ -14962,7 +14958,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="419" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="419" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="1" t="s">
         <v>325</v>
       </c>
@@ -14994,7 +14990,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="420" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="420" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="1" t="s">
         <v>325</v>
       </c>
@@ -15026,7 +15022,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="421" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="421" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="1" t="s">
         <v>325</v>
       </c>
@@ -15058,7 +15054,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="422" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="422" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="1" t="s">
         <v>325</v>
       </c>
@@ -15090,7 +15086,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="423" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="423" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="1" t="s">
         <v>325</v>
       </c>
@@ -15122,7 +15118,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="424" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="424" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="1" t="s">
         <v>325</v>
       </c>
@@ -15154,7 +15150,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="425" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="425" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="1" t="s">
         <v>325</v>
       </c>
@@ -15186,7 +15182,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="426" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="426" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="1" t="s">
         <v>325</v>
       </c>
@@ -15218,7 +15214,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="427" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="427" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="1" t="s">
         <v>325</v>
       </c>
@@ -15250,7 +15246,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="428" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="428" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="1" t="s">
         <v>325</v>
       </c>
@@ -15282,7 +15278,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="429" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="429" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="1" t="s">
         <v>325</v>
       </c>
@@ -15314,7 +15310,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="430" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="430" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="1" t="s">
         <v>325</v>
       </c>
@@ -15346,7 +15342,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="431" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="431" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="1" t="s">
         <v>325</v>
       </c>
@@ -15378,7 +15374,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="432" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="432" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="1" t="s">
         <v>325</v>
       </c>
@@ -15410,7 +15406,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="433" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="433" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="1" t="s">
         <v>325</v>
       </c>
@@ -15442,7 +15438,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="434" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="434" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="1" t="s">
         <v>325</v>
       </c>
@@ -15474,7 +15470,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="435" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="435" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="1" t="s">
         <v>325</v>
       </c>
@@ -15506,7 +15502,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="436" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="436" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="1" t="s">
         <v>325</v>
       </c>
@@ -15538,7 +15534,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="437" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="437" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="1" t="s">
         <v>325</v>
       </c>
@@ -15570,7 +15566,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="438" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="438" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="1" t="s">
         <v>325</v>
       </c>
@@ -15602,7 +15598,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="439" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="439" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="1" t="s">
         <v>325</v>
       </c>
@@ -15634,7 +15630,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="440" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="440" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="1" t="s">
         <v>325</v>
       </c>
@@ -15666,7 +15662,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="441" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="441" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="1" t="s">
         <v>325</v>
       </c>
@@ -15698,7 +15694,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="442" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="442" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="1" t="s">
         <v>325</v>
       </c>
@@ -15730,7 +15726,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="443" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="443" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="1" t="s">
         <v>325</v>
       </c>
@@ -15762,7 +15758,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="444" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="444" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="1" t="s">
         <v>325</v>
       </c>
@@ -15794,7 +15790,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="445" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="445" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="1" t="s">
         <v>325</v>
       </c>
@@ -15826,7 +15822,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="446" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="446" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="1" t="s">
         <v>325</v>
       </c>
@@ -15858,7 +15854,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="447" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="447" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="1" t="s">
         <v>325</v>
       </c>
@@ -15890,7 +15886,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="448" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="448" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="1" t="s">
         <v>325</v>
       </c>
@@ -15922,7 +15918,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="449" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="449" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="1" t="s">
         <v>325</v>
       </c>
@@ -15954,7 +15950,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="450" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="450" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="1" t="s">
         <v>325</v>
       </c>
@@ -15986,7 +15982,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="451" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="451" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="1" t="s">
         <v>325</v>
       </c>
@@ -18899,13 +18895,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H541">
-    <filterColumn colId="0">
-      <customFilters and="true">
-        <customFilter operator="equal" val="RN3 Plan"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -18913,6 +18902,5 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>